--- a/08-linear-programming/08-linear-programming.xlsx
+++ b/08-linear-programming/08-linear-programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{566E9DCB-C8C1-41F4-9FE4-C0CB6C6B3778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA72068-FE88-420D-8224-33AD8D102238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66029647-83CA-4E58-92C4-31D400875225}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
   <si>
     <t>No. of Radio Ads</t>
   </si>
@@ -429,72 +429,6 @@
   </si>
   <si>
     <t>Example 12</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Non-linear vars:</t>
-  </si>
-  <si>
-    <t>x^2</t>
-  </si>
-  <si>
-    <t>xy</t>
-  </si>
-  <si>
-    <t>y^2</t>
-  </si>
-  <si>
-    <t>formulas:</t>
-  </si>
-  <si>
-    <t>Objective (min):</t>
-  </si>
-  <si>
-    <t>Variance:</t>
-  </si>
-  <si>
-    <t>all funds invested:</t>
-  </si>
-  <si>
-    <t>Exp. Return 9%</t>
-  </si>
-  <si>
-    <t>Summary sentence:</t>
-  </si>
-  <si>
-    <t>Invest 93% into X and 7% into Y to minimize variance.</t>
-  </si>
-  <si>
-    <t>Example 13</t>
-  </si>
-  <si>
-    <t>X = XJ6</t>
-  </si>
-  <si>
-    <t>Y = XJ8</t>
-  </si>
-  <si>
-    <t>4 - .1x</t>
-  </si>
-  <si>
-    <t>5-.02*y</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Produce 10 XJ6 snowmobiles and 15 XJ8 snowmobiles for a maximum revenue of $100,500.</t>
-  </si>
-  <si>
-    <t>Example 14</t>
   </si>
   <si>
     <t>Geometry Text</t>
@@ -516,14 +450,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -716,23 +649,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,13 +681,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,10 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -781,16 +710,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -802,46 +731,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="5"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="2" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="5" builtinId="21"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1173,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92778C9-C14B-4C35-B80C-B7E7F41A6549}">
-  <dimension ref="A1:L264"/>
+  <dimension ref="A1:L234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -1191,15 +1109,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,15 +1293,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,7 +1366,7 @@
       <c r="F32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1503,15 +1421,15 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1554,7 +1472,7 @@
       <c r="C43">
         <v>450</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="17">
         <f>SUMPRODUCT(B40:C40,B43:C43)</f>
         <v>708000</v>
       </c>
@@ -1565,7 +1483,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B45">
@@ -1574,7 +1492,7 @@
       <c r="C45">
         <v>225</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="19">
         <f>SUMPRODUCT(B40:C40,B45:C45)</f>
         <v>354000</v>
       </c>
@@ -1584,7 +1502,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B46">
@@ -1593,7 +1511,7 @@
       <c r="C46">
         <v>6</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="20">
         <f>SUMPRODUCT(B40:C40,B46:C46)*H46</f>
         <v>110000</v>
       </c>
@@ -1601,7 +1519,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>=SUMPRODUCT(B40:C40,B46:C46)*H46</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="20">
         <v>11</v>
       </c>
       <c r="I46" t="s">
@@ -1609,7 +1527,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B47">
@@ -1618,7 +1536,7 @@
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <f>SUMPRODUCT(B40:C40,B47:C47)*H47</f>
         <v>44400</v>
       </c>
@@ -1626,7 +1544,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>=SUMPRODUCT(B40:C40,B47:C47)*H47</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="20">
         <v>15</v>
       </c>
       <c r="I47" t="s">
@@ -1759,25 +1677,25 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1883,41 +1801,41 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1942,19 +1860,19 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="25">
+      <c r="B79" s="24">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C79" s="25">
+      <c r="C79" s="24">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="24">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="24">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F79" s="25">
+      <c r="F79" s="24">
         <v>0.11799999999999999</v>
       </c>
     </row>
@@ -2094,7 +2012,7 @@
       <c r="A91" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="26">
+      <c r="B91" s="25">
         <v>-0.5</v>
       </c>
       <c r="C91" s="15"/>
@@ -2119,35 +2037,35 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2166,13 +2084,13 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="28">
+      <c r="B100" s="27">
         <v>0.09</v>
       </c>
-      <c r="C100" s="28">
+      <c r="C100" s="27">
         <v>0.12</v>
       </c>
-      <c r="D100" s="28">
+      <c r="D100" s="27">
         <v>0.18</v>
       </c>
     </row>
@@ -2185,7 +2103,7 @@
       <c r="A103" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="27">
+      <c r="B103" s="26">
         <f>SUMPRODUCT(B99:D99,B100:D100)</f>
         <v>0.56249999999999989</v>
       </c>
@@ -2351,25 +2269,25 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -2384,10 +2302,10 @@
       <c r="A119" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="29">
+      <c r="B119" s="28">
         <v>4</v>
       </c>
-      <c r="C119" s="29">
+      <c r="C119" s="28">
         <v>12</v>
       </c>
     </row>
@@ -2395,10 +2313,10 @@
       <c r="A120" t="s">
         <v>83</v>
       </c>
-      <c r="B120" s="30">
+      <c r="B120" s="29">
         <v>20</v>
       </c>
-      <c r="C120" s="30">
+      <c r="C120" s="29">
         <v>10</v>
       </c>
     </row>
@@ -2475,25 +2393,25 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
     </row>
     <row r="133" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -2538,7 +2456,7 @@
       <c r="A139" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="31">
+      <c r="B139" s="30">
         <f>SUMPRODUCT(B135:C135,B136:C136)</f>
         <v>37900</v>
       </c>
@@ -2635,48 +2553,48 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
+      <c r="A147" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D147" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="33" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="32" t="s">
+      <c r="A151" s="31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="22" t="s">
+      <c r="A153" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="22" t="s">
+      <c r="A154" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B157" s="16"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="37"/>
+      <c r="E157" s="37"/>
+      <c r="F157" s="37"/>
+      <c r="G157" s="37"/>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -2694,15 +2612,15 @@
       <c r="B160" s="11">
         <v>44</v>
       </c>
-      <c r="C160" s="35">
+      <c r="C160" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B161" s="28">
+      <c r="B161" s="27">
         <v>85</v>
       </c>
-      <c r="C161" s="28">
+      <c r="C161" s="27">
         <v>1.5</v>
       </c>
     </row>
@@ -2715,7 +2633,7 @@
       <c r="A164" t="s">
         <v>27</v>
       </c>
-      <c r="B164" s="27">
+      <c r="B164" s="26">
         <f>SUMPRODUCT(B160:C160,B161:C161)</f>
         <v>3770</v>
       </c>
@@ -2816,25 +2734,25 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="22" t="s">
+      <c r="A171" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="22" t="s">
+      <c r="A172" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="16" t="s">
+      <c r="A175" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B175" s="16"/>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="16"/>
+      <c r="B175" s="37"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="37"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="37"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,18 +2767,18 @@
       <c r="A178" t="s">
         <v>2</v>
       </c>
-      <c r="B178" s="24">
+      <c r="B178" s="23">
         <v>2</v>
       </c>
-      <c r="C178" s="24">
+      <c r="C178" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="18">
+      <c r="B179" s="17">
         <v>5</v>
       </c>
-      <c r="C179" s="18">
+      <c r="C179" s="17">
         <v>7</v>
       </c>
     </row>
@@ -2873,7 +2791,7 @@
       <c r="A182" t="s">
         <v>110</v>
       </c>
-      <c r="B182" s="27">
+      <c r="B182" s="26">
         <f>SUMPRODUCT(B178:C178,B179:C179)</f>
         <v>52</v>
       </c>
@@ -2899,7 +2817,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="36" t="s">
+      <c r="A185" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B185" s="15">
@@ -2922,7 +2840,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="36" t="s">
+      <c r="A186" s="35" t="s">
         <v>112</v>
       </c>
       <c r="B186" s="15"/>
@@ -2945,7 +2863,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="36" t="s">
+      <c r="A187" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B187" s="15">
@@ -2970,25 +2888,25 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="37" t="s">
+      <c r="A189" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="37" t="s">
+      <c r="A190" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B193" s="16"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="16"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="37"/>
     </row>
     <row r="194" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -3021,25 +2939,25 @@
       <c r="A196" t="s">
         <v>118</v>
       </c>
-      <c r="B196" s="38">
-        <v>0</v>
-      </c>
-      <c r="C196" s="38">
-        <v>0</v>
-      </c>
-      <c r="D196" s="38">
-        <v>1</v>
-      </c>
-      <c r="E196" s="38">
-        <v>1</v>
-      </c>
-      <c r="F196" s="38">
-        <v>1</v>
-      </c>
-      <c r="G196" s="38">
-        <v>1</v>
-      </c>
-      <c r="H196" s="38">
+      <c r="B196" s="36">
+        <v>0</v>
+      </c>
+      <c r="C196" s="36">
+        <v>0</v>
+      </c>
+      <c r="D196" s="36">
+        <v>1</v>
+      </c>
+      <c r="E196" s="36">
+        <v>1</v>
+      </c>
+      <c r="F196" s="36">
+        <v>1</v>
+      </c>
+      <c r="G196" s="36">
+        <v>1</v>
+      </c>
+      <c r="H196" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3078,13 +2996,13 @@
       <c r="A200" t="s">
         <v>120</v>
       </c>
-      <c r="B200" s="39">
+      <c r="B200" s="38">
         <f>SUMPRODUCT(B196:H196,B197:H197)</f>
         <v>360</v>
       </c>
-      <c r="C200" s="40"/>
-      <c r="D200" s="40"/>
-      <c r="E200" s="41"/>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="40"/>
       <c r="F200" t="s">
         <v>119</v>
       </c>
@@ -3247,28 +3165,31 @@
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="22" t="s">
+      <c r="A208" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="22" t="s">
+      <c r="A209" s="21" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="16" t="s">
+      <c r="A212" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B212" s="16"/>
-      <c r="C212" s="16"/>
-      <c r="D212" s="16"/>
-      <c r="E212" s="16"/>
-      <c r="F212" s="16"/>
-      <c r="G212" s="16"/>
+      <c r="B212" s="37"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="37"/>
+      <c r="E212" s="37"/>
+      <c r="F212" s="37"/>
+      <c r="G212" s="37"/>
     </row>
     <row r="213" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>2</v>
+      </c>
       <c r="B214" s="2" t="s">
         <v>128</v>
       </c>
@@ -3277,437 +3198,140 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B215" s="11">
+        <v>35</v>
+      </c>
+      <c r="C215" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="27">
+        <v>80</v>
+      </c>
+      <c r="C216" s="27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>42</v>
+      </c>
+      <c r="B219" s="12">
+        <f>SUMPRODUCT(B215:C215,B216:C216)</f>
+        <v>5050</v>
+      </c>
+      <c r="C219" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B219)</f>
+        <v>=SUMPRODUCT(B215:C215,B216:C216)</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B221" s="15"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B222" s="15">
+        <v>3</v>
+      </c>
+      <c r="C222" s="15">
+        <v>5</v>
+      </c>
+      <c r="D222" s="15">
+        <f>SUMPRODUCT($B$4:$C$4,B222:C222)</f>
+        <v>575</v>
+      </c>
+      <c r="E222" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" s="15">
+        <v>360</v>
+      </c>
+      <c r="G222" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D222)</f>
+        <v>=SUMPRODUCT($B$4:$C$4,B222:C222)</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B223" s="15">
+        <v>4</v>
+      </c>
+      <c r="C223" s="15">
         <v>2</v>
       </c>
-      <c r="B215" s="45">
-        <v>0.93023256126453513</v>
-      </c>
-      <c r="C215" s="45">
-        <v>6.9767438735465051E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
-      <c r="B218" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C218" s="15" t="s">
+      <c r="D223" s="15">
+        <f>SUMPRODUCT($B$4:$C$4,B223:C223)</f>
+        <v>720</v>
+      </c>
+      <c r="E223" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="15">
+        <v>240</v>
+      </c>
+      <c r="G223" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D223)</f>
+        <v>=SUMPRODUCT($B$4:$C$4,B223:C223)</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D218" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B219" s="15">
-        <f>B215^2</f>
-        <v>0.86533261803677708</v>
-      </c>
-      <c r="C219" s="15">
-        <f>B215*C215</f>
-        <v>6.4899943227758189E-2</v>
-      </c>
-      <c r="D219" s="15">
-        <f>C215^2</f>
-        <v>4.8674955077068691E-3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
-      <c r="B220" s="15" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B219)</f>
-        <v>=B215^2</v>
-      </c>
-      <c r="C220" s="15" t="str">
-        <f t="shared" ref="C220:D220" ca="1" si="13">_xlfn.FORMULATEXT(C219)</f>
-        <v>=B215*C215</v>
-      </c>
-      <c r="D220" s="15" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>=C215^2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
-      <c r="B221" s="15">
-        <v>0.16</v>
-      </c>
-      <c r="C221" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="D221" s="15">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>136</v>
-      </c>
-      <c r="B224" s="44">
-        <f>SUMPRODUCT(B219:D219,B221:D221)</f>
-        <v>0.15581395348837215</v>
-      </c>
-      <c r="C224" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B224)</f>
-        <v>=SUMPRODUCT(B219:D219,B221:D221)</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B226" s="15"/>
-      <c r="C226" s="15"/>
-      <c r="D226" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E226" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F226" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B227" s="15">
-        <v>1</v>
-      </c>
-      <c r="C227" s="15">
-        <v>1</v>
-      </c>
-      <c r="D227" s="43">
-        <f>SUMPRODUCT($B$2:$C$2,B227:C227)</f>
-        <v>0</v>
-      </c>
-      <c r="E227" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F227" s="26">
-        <v>1</v>
-      </c>
-      <c r="G227" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D227)</f>
-        <v>=SUMPRODUCT($B$2:$C$2,B227:C227)</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B228" s="26">
-        <v>0.11</v>
-      </c>
-      <c r="C228" s="26">
-        <v>0.08</v>
-      </c>
-      <c r="D228" s="43">
-        <f>SUMPRODUCT($B$2:$C$2,B228:C228)</f>
-        <v>0</v>
-      </c>
-      <c r="E228" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F228" s="26">
-        <v>0.09</v>
-      </c>
-      <c r="G228" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D228)</f>
-        <v>=SUMPRODUCT($B$2:$C$2,B228:C228)</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B234" s="16"/>
-      <c r="C234" s="16"/>
-      <c r="D234" s="16"/>
-      <c r="E234" s="16"/>
-      <c r="F234" s="16"/>
-      <c r="G234" s="16"/>
-    </row>
-    <row r="235" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>2</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B237" s="11">
-        <v>10</v>
-      </c>
-      <c r="C237" s="11">
-        <v>15</v>
-      </c>
-      <c r="D237" s="2">
-        <f>4-0.1*B237</f>
-        <v>3</v>
-      </c>
-      <c r="E237" s="46">
-        <f>5-0.02*C237</f>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>146</v>
-      </c>
-      <c r="B240" s="42">
-        <f>B237*D237+C237*E237</f>
-        <v>100.5</v>
-      </c>
-      <c r="C240" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B244" s="15">
-        <v>1</v>
-      </c>
-      <c r="C244" s="15">
-        <v>2</v>
-      </c>
-      <c r="D244" s="15">
-        <f>SUMPRODUCT(B237:C237,B244:C244)</f>
-        <v>40</v>
-      </c>
-      <c r="E244" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F244" s="15">
-        <v>40</v>
-      </c>
-      <c r="G244" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D244)</f>
-        <v>=SUMPRODUCT(B237:C237,B244:C244)</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B250" s="16"/>
-      <c r="C250" s="16"/>
-      <c r="D250" s="16"/>
-      <c r="E250" s="16"/>
-      <c r="F250" s="16"/>
-      <c r="G250" s="16"/>
-    </row>
-    <row r="251" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>2</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B253" s="11">
-        <v>35</v>
-      </c>
-      <c r="C253" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B254" s="28">
-        <v>80</v>
-      </c>
-      <c r="C254" s="28">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>42</v>
-      </c>
-      <c r="B257" s="12">
-        <f>SUMPRODUCT(B253:C253,B254:C254)</f>
-        <v>5050</v>
-      </c>
-      <c r="C257" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B257)</f>
-        <v>=SUMPRODUCT(B253:C253,B254:C254)</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B259" s="15"/>
-      <c r="C259" s="15"/>
-      <c r="D259" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E259" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F259" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B260" s="15">
-        <v>3</v>
-      </c>
-      <c r="C260" s="15">
-        <v>5</v>
-      </c>
-      <c r="D260" s="15">
-        <f>SUMPRODUCT($B$4:$C$4,B260:C260)</f>
-        <v>575</v>
-      </c>
-      <c r="E260" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F260" s="15">
-        <v>360</v>
-      </c>
-      <c r="G260" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D260)</f>
-        <v>=SUMPRODUCT($B$4:$C$4,B260:C260)</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B261" s="15">
-        <v>4</v>
-      </c>
-      <c r="C261" s="15">
-        <v>2</v>
-      </c>
-      <c r="D261" s="15">
-        <f>SUMPRODUCT($B$4:$C$4,B261:C261)</f>
-        <v>720</v>
-      </c>
-      <c r="E261" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F261" s="15">
-        <v>240</v>
-      </c>
-      <c r="G261" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D261)</f>
-        <v>=SUMPRODUCT($B$4:$C$4,B261:C261)</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="22" t="s">
-        <v>154</v>
-      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="41"/>
+      <c r="B234" s="41"/>
+      <c r="C234" s="41"/>
+      <c r="D234" s="41"/>
+      <c r="E234" s="41"/>
+      <c r="F234" s="41"/>
+      <c r="G234" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A250:G250"/>
-    <mergeCell ref="A193:G193"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="A212:G212"/>
-    <mergeCell ref="A234:G234"/>
+  <mergeCells count="14">
+    <mergeCell ref="A175:G175"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A60:G60"/>
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="A96:G96"/>
     <mergeCell ref="A116:G116"/>
     <mergeCell ref="A132:G132"/>
     <mergeCell ref="A157:G157"/>
-    <mergeCell ref="A175:G175"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A212:G212"/>
+    <mergeCell ref="A193:G193"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="A234:G234"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
